--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H2">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I2">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J2">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>397.2012023333334</v>
+        <v>342.0815733333334</v>
       </c>
       <c r="N2">
-        <v>1191.603607</v>
+        <v>1026.24472</v>
       </c>
       <c r="O2">
-        <v>0.3567197882072776</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="P2">
-        <v>0.3567197882072777</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="Q2">
-        <v>12428.67718177148</v>
+        <v>14171.9829042996</v>
       </c>
       <c r="R2">
-        <v>111858.0946359433</v>
+        <v>127547.8461386964</v>
       </c>
       <c r="S2">
-        <v>0.007229969143225862</v>
+        <v>0.04927525120090392</v>
       </c>
       <c r="T2">
-        <v>0.007229969143225862</v>
+        <v>0.04927525120090392</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H3">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I3">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J3">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.755353</v>
       </c>
       <c r="O3">
-        <v>0.0005254844368635831</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="P3">
-        <v>0.0005254844368635832</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="Q3">
-        <v>18.30870236452222</v>
+        <v>24.24064379791499</v>
       </c>
       <c r="R3">
-        <v>164.7783212807</v>
+        <v>218.165794181235</v>
       </c>
       <c r="S3">
-        <v>1.065047802047224E-05</v>
+        <v>8.428346410518955E-05</v>
       </c>
       <c r="T3">
-        <v>1.065047802047224E-05</v>
+        <v>8.428346410518955E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H4">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I4">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J4">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>476.1463826666666</v>
+        <v>42.10186266666667</v>
       </c>
       <c r="N4">
-        <v>1428.439148</v>
+        <v>126.305588</v>
       </c>
       <c r="O4">
-        <v>0.4276191405835045</v>
+        <v>0.0870204765782689</v>
       </c>
       <c r="P4">
-        <v>0.4276191405835046</v>
+        <v>0.08702047657826889</v>
       </c>
       <c r="Q4">
-        <v>14898.92187301569</v>
+        <v>1744.22396429334</v>
       </c>
       <c r="R4">
-        <v>134090.2968571412</v>
+        <v>15698.01567864006</v>
       </c>
       <c r="S4">
-        <v>0.008666951746660698</v>
+        <v>0.00606457646552167</v>
       </c>
       <c r="T4">
-        <v>0.008666951746660699</v>
+        <v>0.006064576465521669</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H5">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I5">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J5">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.591415666666667</v>
+        <v>3.958736333333333</v>
       </c>
       <c r="N5">
-        <v>22.774247</v>
+        <v>11.876209</v>
       </c>
       <c r="O5">
-        <v>0.006817724047406503</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="P5">
-        <v>0.006817724047406504</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="Q5">
-        <v>237.5402041065889</v>
+        <v>164.005161376995</v>
       </c>
       <c r="R5">
-        <v>2137.8618369593</v>
+        <v>1476.046452392955</v>
       </c>
       <c r="S5">
-        <v>0.0001381811049437383</v>
+        <v>0.00057023745933566</v>
       </c>
       <c r="T5">
-        <v>0.0001381811049437383</v>
+        <v>0.00057023745933566</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H6">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I6">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J6">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>231.9582716666667</v>
+        <v>95.08829366666667</v>
       </c>
       <c r="N6">
-        <v>695.874815</v>
+        <v>285.264881</v>
       </c>
       <c r="O6">
-        <v>0.2083178627249476</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="P6">
-        <v>0.2083178627249477</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="Q6">
-        <v>7258.121227355388</v>
+        <v>3939.381063737955</v>
       </c>
       <c r="R6">
-        <v>65323.0910461985</v>
+        <v>35454.42957364159</v>
       </c>
       <c r="S6">
-        <v>0.004222170368101281</v>
+        <v>0.01369702410753545</v>
       </c>
       <c r="T6">
-        <v>0.004222170368101282</v>
+        <v>0.01369702410753545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>397.2012023333334</v>
+        <v>342.0815733333334</v>
       </c>
       <c r="N7">
-        <v>1191.603607</v>
+        <v>1026.24472</v>
       </c>
       <c r="O7">
-        <v>0.3567197882072776</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="P7">
-        <v>0.3567197882072777</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="Q7">
-        <v>67616.45397870739</v>
+        <v>58233.31556999177</v>
       </c>
       <c r="R7">
-        <v>608548.0858083665</v>
+        <v>524099.8401299259</v>
       </c>
       <c r="S7">
-        <v>0.03933362084240145</v>
+        <v>0.2024742248385224</v>
       </c>
       <c r="T7">
-        <v>0.03933362084240146</v>
+        <v>0.2024742248385225</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>1.755353</v>
       </c>
       <c r="O8">
-        <v>0.0005254844368635831</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="P8">
-        <v>0.0005254844368635832</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="Q8">
-        <v>99.60589632629902</v>
+        <v>99.60589632629899</v>
       </c>
       <c r="R8">
-        <v>896.4530669366911</v>
+        <v>896.4530669366909</v>
       </c>
       <c r="S8">
-        <v>5.794241385388145E-05</v>
+        <v>0.0003463245472220065</v>
       </c>
       <c r="T8">
-        <v>5.794241385388146E-05</v>
+        <v>0.0003463245472220065</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>476.1463826666666</v>
+        <v>42.10186266666667</v>
       </c>
       <c r="N9">
-        <v>1428.439148</v>
+        <v>126.305588</v>
       </c>
       <c r="O9">
-        <v>0.4276191405835045</v>
+        <v>0.0870204765782689</v>
       </c>
       <c r="P9">
-        <v>0.4276191405835046</v>
+        <v>0.08702047657826889</v>
       </c>
       <c r="Q9">
-        <v>81055.46957456128</v>
+        <v>7167.094768835805</v>
       </c>
       <c r="R9">
-        <v>729499.2261710516</v>
+        <v>64503.85291952223</v>
       </c>
       <c r="S9">
-        <v>0.04715132071925238</v>
+        <v>0.02491961763571732</v>
       </c>
       <c r="T9">
-        <v>0.04715132071925239</v>
+        <v>0.02491961763571732</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.591415666666667</v>
+        <v>3.958736333333333</v>
       </c>
       <c r="N10">
-        <v>22.774247</v>
+        <v>11.876209</v>
       </c>
       <c r="O10">
-        <v>0.006817724047406503</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="P10">
-        <v>0.006817724047406504</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="Q10">
-        <v>1292.303762030501</v>
+        <v>673.9045892213469</v>
       </c>
       <c r="R10">
-        <v>11630.73385827451</v>
+        <v>6065.141302992122</v>
       </c>
       <c r="S10">
-        <v>0.0007517546868832185</v>
+        <v>0.002343131384193902</v>
       </c>
       <c r="T10">
-        <v>0.0007517546868832186</v>
+        <v>0.002343131384193902</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>231.9582716666667</v>
+        <v>95.08829366666667</v>
       </c>
       <c r="N11">
-        <v>695.874815</v>
+        <v>285.264881</v>
       </c>
       <c r="O11">
-        <v>0.2083178627249476</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="P11">
-        <v>0.2083178627249477</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="Q11">
-        <v>39486.77825996965</v>
+        <v>16187.09408444912</v>
       </c>
       <c r="R11">
-        <v>355381.0043397269</v>
+        <v>145683.8467600421</v>
       </c>
       <c r="S11">
-        <v>0.02297011855804684</v>
+        <v>0.05628168849836162</v>
       </c>
       <c r="T11">
-        <v>0.02297011855804685</v>
+        <v>0.05628168849836163</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H12">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I12">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J12">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>397.2012023333334</v>
+        <v>342.0815733333334</v>
       </c>
       <c r="N12">
-        <v>1191.603607</v>
+        <v>1026.24472</v>
       </c>
       <c r="O12">
-        <v>0.3567197882072776</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="P12">
-        <v>0.3567197882072777</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="Q12">
-        <v>239900.1966150925</v>
+        <v>83664.99989316889</v>
       </c>
       <c r="R12">
-        <v>2159101.769535833</v>
+        <v>752984.99903852</v>
       </c>
       <c r="S12">
-        <v>0.1395539520106611</v>
+        <v>0.2908988752172956</v>
       </c>
       <c r="T12">
-        <v>0.1395539520106612</v>
+        <v>0.2908988752172957</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H13">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I13">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J13">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.755353</v>
       </c>
       <c r="O13">
-        <v>0.0005254844368635831</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="P13">
-        <v>0.0005254844368635832</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="Q13">
-        <v>353.3973272278727</v>
+        <v>143.1058359622778</v>
       </c>
       <c r="R13">
-        <v>3180.575945050855</v>
+        <v>1287.9525236605</v>
       </c>
       <c r="S13">
-        <v>0.0002055771289082461</v>
+        <v>0.0004975715863457066</v>
       </c>
       <c r="T13">
-        <v>0.0002055771289082462</v>
+        <v>0.0004975715863457067</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H14">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I14">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J14">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>476.1463826666666</v>
+        <v>42.10186266666667</v>
       </c>
       <c r="N14">
-        <v>1428.439148</v>
+        <v>126.305588</v>
       </c>
       <c r="O14">
-        <v>0.4276191405835045</v>
+        <v>0.0870204765782689</v>
       </c>
       <c r="P14">
-        <v>0.4276191405835046</v>
+        <v>0.08702047657826889</v>
       </c>
       <c r="Q14">
-        <v>287581.2312457151</v>
+        <v>10297.11218053978</v>
       </c>
       <c r="R14">
-        <v>2588231.081211436</v>
+        <v>92674.00962485799</v>
       </c>
       <c r="S14">
-        <v>0.1672908063882201</v>
+        <v>0.03580252620725703</v>
       </c>
       <c r="T14">
-        <v>0.1672908063882201</v>
+        <v>0.03580252620725703</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H15">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I15">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J15">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.591415666666667</v>
+        <v>3.958736333333333</v>
       </c>
       <c r="N15">
-        <v>22.774247</v>
+        <v>11.876209</v>
       </c>
       <c r="O15">
-        <v>0.006817724047406503</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="P15">
-        <v>0.006817724047406504</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="Q15">
-        <v>4585.036752965016</v>
+        <v>968.2125572507221</v>
       </c>
       <c r="R15">
-        <v>41265.33077668515</v>
+        <v>8713.913015256499</v>
       </c>
       <c r="S15">
-        <v>0.002667192474281377</v>
+        <v>0.003366424959482884</v>
       </c>
       <c r="T15">
-        <v>0.002667192474281377</v>
+        <v>0.003366424959482884</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H16">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I16">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J16">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>231.9582716666667</v>
+        <v>95.08829366666667</v>
       </c>
       <c r="N16">
-        <v>695.874815</v>
+        <v>285.264881</v>
       </c>
       <c r="O16">
-        <v>0.2083178627249476</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="P16">
-        <v>0.2083178627249477</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="Q16">
-        <v>140097.3477734623</v>
+        <v>23256.33035986761</v>
       </c>
       <c r="R16">
-        <v>1260876.129961161</v>
+        <v>209306.9732388085</v>
       </c>
       <c r="S16">
-        <v>0.08149696758843203</v>
+        <v>0.08086105721634863</v>
       </c>
       <c r="T16">
-        <v>0.08149696758843204</v>
+        <v>0.08086105721634865</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H17">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>397.2012023333334</v>
+        <v>342.0815733333334</v>
       </c>
       <c r="N17">
-        <v>1191.603607</v>
+        <v>1026.24472</v>
       </c>
       <c r="O17">
-        <v>0.3567197882072776</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="P17">
-        <v>0.3567197882072777</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="Q17">
-        <v>17263.87057276631</v>
+        <v>8269.222366335282</v>
       </c>
       <c r="R17">
-        <v>155374.8351548968</v>
+        <v>74423.00129701754</v>
       </c>
       <c r="S17">
-        <v>0.01004268191282727</v>
+        <v>0.02875165826044594</v>
       </c>
       <c r="T17">
-        <v>0.01004268191282727</v>
+        <v>0.02875165826044594</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H18">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.755353</v>
       </c>
       <c r="O18">
-        <v>0.0005254844368635831</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="P18">
-        <v>0.0005254844368635832</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="Q18">
-        <v>25.43143275456455</v>
+        <v>14.144193880397</v>
       </c>
       <c r="R18">
-        <v>228.882894791081</v>
+        <v>127.297744923573</v>
       </c>
       <c r="S18">
-        <v>1.479388927674426E-05</v>
+        <v>4.917863020279271E-05</v>
       </c>
       <c r="T18">
-        <v>1.479388927674426E-05</v>
+        <v>4.917863020279271E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H19">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>476.1463826666666</v>
+        <v>42.10186266666667</v>
       </c>
       <c r="N19">
-        <v>1428.439148</v>
+        <v>126.305588</v>
       </c>
       <c r="O19">
-        <v>0.4276191405835045</v>
+        <v>0.0870204765782689</v>
       </c>
       <c r="P19">
-        <v>0.4276191405835046</v>
+        <v>0.08702047657826889</v>
       </c>
       <c r="Q19">
-        <v>20695.12749649186</v>
+        <v>1017.738725401412</v>
       </c>
       <c r="R19">
-        <v>186256.1474684268</v>
+        <v>9159.64852861271</v>
       </c>
       <c r="S19">
-        <v>0.01203870138603398</v>
+        <v>0.003538624883313096</v>
       </c>
       <c r="T19">
-        <v>0.01203870138603398</v>
+        <v>0.003538624883313096</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H20">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.591415666666667</v>
+        <v>3.958736333333333</v>
       </c>
       <c r="N20">
-        <v>22.774247</v>
+        <v>11.876209</v>
       </c>
       <c r="O20">
-        <v>0.006817724047406503</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="P20">
-        <v>0.006817724047406504</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="Q20">
-        <v>329.9517140520132</v>
+        <v>95.69551119354101</v>
       </c>
       <c r="R20">
-        <v>2969.565426468119</v>
+        <v>861.2596007418691</v>
       </c>
       <c r="S20">
-        <v>0.0001919384240544353</v>
+        <v>0.0003327283404660365</v>
       </c>
       <c r="T20">
-        <v>0.0001919384240544353</v>
+        <v>0.0003327283404660365</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H21">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>231.9582716666667</v>
+        <v>95.08829366666667</v>
       </c>
       <c r="N21">
-        <v>695.874815</v>
+        <v>285.264881</v>
       </c>
       <c r="O21">
-        <v>0.2083178627249476</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="P21">
-        <v>0.2083178627249477</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="Q21">
-        <v>10081.78614971892</v>
+        <v>2298.59280961287</v>
       </c>
       <c r="R21">
-        <v>90736.07534747024</v>
+        <v>20687.33528651582</v>
       </c>
       <c r="S21">
-        <v>0.005864743424020636</v>
+        <v>0.007992088253782953</v>
       </c>
       <c r="T21">
-        <v>0.005864743424020638</v>
+        <v>0.007992088253782953</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H22">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>397.2012023333334</v>
+        <v>342.0815733333334</v>
       </c>
       <c r="N22">
-        <v>1191.603607</v>
+        <v>1026.24472</v>
       </c>
       <c r="O22">
-        <v>0.3567197882072776</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="P22">
-        <v>0.3567197882072777</v>
+        <v>0.7070495140748019</v>
       </c>
       <c r="Q22">
-        <v>276009.8907168179</v>
+        <v>39013.95553985999</v>
       </c>
       <c r="R22">
-        <v>2484089.016451361</v>
+        <v>351125.5998587399</v>
       </c>
       <c r="S22">
-        <v>0.1605595642981619</v>
+        <v>0.1356495045576339</v>
       </c>
       <c r="T22">
-        <v>0.1605595642981619</v>
+        <v>0.1356495045576339</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H23">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.755353</v>
       </c>
       <c r="O23">
-        <v>0.0005254844368635831</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="P23">
-        <v>0.0005254844368635832</v>
+        <v>0.001209381604106811</v>
       </c>
       <c r="Q23">
-        <v>406.5905699288793</v>
+        <v>66.73190376926844</v>
       </c>
       <c r="R23">
-        <v>3659.315129359914</v>
+        <v>600.587133923416</v>
       </c>
       <c r="S23">
-        <v>0.000236520526804239</v>
+        <v>0.000232023376231116</v>
       </c>
       <c r="T23">
-        <v>0.000236520526804239</v>
+        <v>0.000232023376231116</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H24">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>476.1463826666666</v>
+        <v>42.10186266666667</v>
       </c>
       <c r="N24">
-        <v>1428.439148</v>
+        <v>126.305588</v>
       </c>
       <c r="O24">
-        <v>0.4276191405835045</v>
+        <v>0.0870204765782689</v>
       </c>
       <c r="P24">
-        <v>0.4276191405835046</v>
+        <v>0.08702047657826889</v>
       </c>
       <c r="Q24">
-        <v>330867.858085549</v>
+        <v>4801.662311761149</v>
       </c>
       <c r="R24">
-        <v>2977810.722769942</v>
+        <v>43214.96080585034</v>
       </c>
       <c r="S24">
-        <v>0.1924713603433374</v>
+        <v>0.01669513138645978</v>
       </c>
       <c r="T24">
-        <v>0.1924713603433374</v>
+        <v>0.01669513138645978</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H25">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.591415666666667</v>
+        <v>3.958736333333333</v>
       </c>
       <c r="N25">
-        <v>22.774247</v>
+        <v>11.876209</v>
       </c>
       <c r="O25">
-        <v>0.006817724047406503</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="P25">
-        <v>0.006817724047406504</v>
+        <v>0.008182324974593572</v>
       </c>
       <c r="Q25">
-        <v>5275.174889284987</v>
+        <v>451.4886955112275</v>
       </c>
       <c r="R25">
-        <v>47476.57400356489</v>
+        <v>4063.398259601048</v>
       </c>
       <c r="S25">
-        <v>0.003068657357243734</v>
+        <v>0.001569802831115089</v>
       </c>
       <c r="T25">
-        <v>0.003068657357243734</v>
+        <v>0.001569802831115089</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H26">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>231.9582716666667</v>
+        <v>95.08829366666667</v>
       </c>
       <c r="N26">
-        <v>695.874815</v>
+        <v>285.264881</v>
       </c>
       <c r="O26">
-        <v>0.2083178627249476</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="P26">
-        <v>0.2083178627249477</v>
+        <v>0.1965383027682288</v>
       </c>
       <c r="Q26">
-        <v>161184.7518020612</v>
+        <v>10844.69539041083</v>
       </c>
       <c r="R26">
-        <v>1450662.766218551</v>
+        <v>97602.25851369744</v>
       </c>
       <c r="S26">
-        <v>0.09376386278634687</v>
+        <v>0.03770644469220011</v>
       </c>
       <c r="T26">
-        <v>0.09376386278634689</v>
+        <v>0.03770644469220011</v>
       </c>
     </row>
   </sheetData>
